--- a/AutomationPOM_MAVEN_Avianza/resources/Test.xlsx
+++ b/AutomationPOM_MAVEN_Avianza/resources/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\IdeaProjects\AutomatizacionPOM_MAVEN_Avianca\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9510EBB-46CF-4DA7-9484-118B28F9BB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1BA06D-1209-44C5-86E0-B945A458DE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="30" windowWidth="17250" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataInjection" sheetId="1" r:id="rId1"/>
@@ -37,19 +37,19 @@
     <t>asar170917@gmail.com</t>
   </si>
   <si>
-    <t>2021.7.26</t>
+    <t>Sebastian Azcarate</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>cucuta</t>
+  </si>
+  <si>
+    <t>2021.8.15</t>
   </si>
   <si>
     <t>3203877341a</t>
-  </si>
-  <si>
-    <t>Sebastian Azcarate</t>
-  </si>
-  <si>
-    <t>Barranquilla</t>
-  </si>
-  <si>
-    <t>cucuta</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,10 +386,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -401,10 +401,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -433,7 +433,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
